--- a/measurement.xlsx
+++ b/measurement.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bock\Documents\Studium\Semester 7\Lab Course\E212\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoffmann\Desktop\Studium\Master\8.Semester\Advanced Lab Course\E212Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1.Magnification" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="energy ranges omega" sheetId="6" r:id="rId6"/>
     <sheet name="spin parity" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,7 +572,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1713,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,10 +2621,15 @@
   <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2888,7 +2893,7 @@
         <v>1.0250999999999999</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F30" si="1">ABS(1-E23)</f>
+        <f t="shared" ref="F23:F26" si="1">ABS(1-E23)</f>
         <v>2.50999999999999E-2</v>
       </c>
     </row>
@@ -2958,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
